--- a/Assets/@Project/Scripts/Data/RawData/EnemyDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/EnemyDbSheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{371DE11E-0511-4E20-AB29-A8CA2E7431EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1224CE-EC33-4F74-B6A6-F179C65636AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>dev_ID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>enemyType</t>
   </si>
   <si>
-    <t>entityType</t>
-  </si>
-  <si>
     <t>Ball</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>Boss</t>
-  </si>
-  <si>
-    <t>SkyFire</t>
   </si>
 </sst>
 </file>
@@ -471,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -493,7 +487,7 @@
     <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,16 +524,13 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -563,24 +554,21 @@
         <v>20</v>
       </c>
       <c r="J2" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
         <v>100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1">
+    <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>40</v>
@@ -598,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2">
         <v>0.7</v>
@@ -610,18 +598,15 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1">
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>40</v>
@@ -639,30 +624,27 @@
         <v>10</v>
       </c>
       <c r="H4" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1">
+    <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>40</v>
@@ -680,30 +662,27 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
+    <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>70</v>
@@ -733,10 +712,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
